--- a/Empirical Application/Estimates/emp_app_knn_c3_L5.xlsx
+++ b/Empirical Application/Estimates/emp_app_knn_c3_L5.xlsx
@@ -435,19 +435,19 @@
         <v>160</v>
       </c>
       <c r="C2">
-        <v>44.78562328390966</v>
+        <v>45.06396488914455</v>
       </c>
       <c r="D2">
-        <v>1.178517360997835</v>
+        <v>1.179856741961756</v>
       </c>
       <c r="E2">
-        <v>231.344718221051</v>
+        <v>244.2038386074096</v>
       </c>
       <c r="F2">
         <v>1097.03775721248</v>
       </c>
       <c r="H2">
-        <v>0.001698573772097719</v>
+        <v>0.001700504195400297</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -458,19 +458,19 @@
         <v>200</v>
       </c>
       <c r="C3">
-        <v>45.20952863341826</v>
+        <v>45.07299606798048</v>
       </c>
       <c r="D3">
-        <v>1.180634917318173</v>
+        <v>1.182358755253994</v>
       </c>
       <c r="E3">
-        <v>231.344718221051</v>
+        <v>244.2038386074096</v>
       </c>
       <c r="F3">
         <v>1097.03775721248</v>
       </c>
       <c r="H3">
-        <v>0.0017016257641563</v>
+        <v>0.001704110297691431</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -481,19 +481,19 @@
         <v>240</v>
       </c>
       <c r="C4">
-        <v>45.13897647031278</v>
+        <v>45.26066041899155</v>
       </c>
       <c r="D4">
-        <v>1.179271545448171</v>
+        <v>1.189060507597289</v>
       </c>
       <c r="E4">
-        <v>231.344718221051</v>
+        <v>244.2038386074096</v>
       </c>
       <c r="F4">
         <v>1097.03775721248</v>
       </c>
       <c r="H4">
-        <v>0.001699660763235109</v>
+        <v>0.001713769400844377</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -504,19 +504,19 @@
         <v>280</v>
       </c>
       <c r="C5">
-        <v>45.25014201014152</v>
+        <v>45.21701880223837</v>
       </c>
       <c r="D5">
-        <v>1.185528709261764</v>
+        <v>1.181924905648144</v>
       </c>
       <c r="E5">
-        <v>231.344718221051</v>
+        <v>244.2038386074096</v>
       </c>
       <c r="F5">
         <v>1097.03775721248</v>
       </c>
       <c r="H5">
-        <v>0.001708679089730095</v>
+        <v>0.001703484998832102</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -527,22 +527,22 @@
         <v>320</v>
       </c>
       <c r="C6">
-        <v>45.17908724353834</v>
+        <v>45.20897642836977</v>
       </c>
       <c r="D6">
-        <v>1.184487355437532</v>
+        <v>1.186257351490204</v>
       </c>
       <c r="E6">
-        <v>231.344718221051</v>
+        <v>244.2038386074096</v>
       </c>
       <c r="F6">
         <v>1097.03775721248</v>
       </c>
       <c r="G6">
-        <v>0.005483695529465082</v>
+        <v>0.002208790182508169</v>
       </c>
       <c r="H6">
-        <v>0.001707178207051696</v>
+        <v>0.001709729267368058</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -553,22 +553,22 @@
         <v>360</v>
       </c>
       <c r="C7">
-        <v>45.30108888197109</v>
+        <v>45.21289336010683</v>
       </c>
       <c r="D7">
-        <v>1.186656560409002</v>
+        <v>1.186050296295512</v>
       </c>
       <c r="E7">
-        <v>231.344718221051</v>
+        <v>244.2038386074096</v>
       </c>
       <c r="F7">
         <v>1097.03775721248</v>
       </c>
       <c r="G7">
-        <v>0.002368108248498801</v>
+        <v>0.00301673142838621</v>
       </c>
       <c r="H7">
-        <v>0.001710304639290015</v>
+        <v>0.001709430842809609</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -579,22 +579,22 @@
         <v>400</v>
       </c>
       <c r="C8">
-        <v>45.44233726753162</v>
+        <v>45.50631814257528</v>
       </c>
       <c r="D8">
-        <v>1.179443677062743</v>
+        <v>1.182537165641296</v>
       </c>
       <c r="E8">
-        <v>231.344718221051</v>
+        <v>244.2038386074096</v>
       </c>
       <c r="F8">
         <v>1097.03775721248</v>
       </c>
       <c r="G8">
-        <v>0.003180798258893347</v>
+        <v>0.002158965490605569</v>
       </c>
       <c r="H8">
-        <v>0.001699908853128</v>
+        <v>0.001704367437055321</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -605,22 +605,22 @@
         <v>440</v>
       </c>
       <c r="C9">
-        <v>45.46209177338059</v>
+        <v>45.43674778717372</v>
       </c>
       <c r="D9">
-        <v>1.175986511761361</v>
+        <v>1.17682366333642</v>
       </c>
       <c r="E9">
-        <v>231.344718221051</v>
+        <v>244.2038386074096</v>
       </c>
       <c r="F9">
         <v>1097.03775721248</v>
       </c>
       <c r="G9">
-        <v>0.002609748364483932</v>
+        <v>0.002609042384708537</v>
       </c>
       <c r="H9">
-        <v>0.001694926109130269</v>
+        <v>0.00169613267914419</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -631,22 +631,22 @@
         <v>480</v>
       </c>
       <c r="C10">
-        <v>45.66301456862407</v>
+        <v>45.41737131834586</v>
       </c>
       <c r="D10">
-        <v>1.176152791976319</v>
+        <v>1.170504306860402</v>
       </c>
       <c r="E10">
-        <v>231.344718221051</v>
+        <v>244.2038386074096</v>
       </c>
       <c r="F10">
         <v>1097.03775721248</v>
       </c>
       <c r="G10">
-        <v>0.003591703735417306</v>
+        <v>0.003486130965648915</v>
       </c>
       <c r="H10">
-        <v>0.001695165765516584</v>
+        <v>0.001687024715594454</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -657,22 +657,22 @@
         <v>520</v>
       </c>
       <c r="C11">
-        <v>45.58842595317807</v>
+        <v>45.55567309652228</v>
       </c>
       <c r="D11">
-        <v>1.16869559837394</v>
+        <v>1.167364559557762</v>
       </c>
       <c r="E11">
-        <v>231.344718221051</v>
+        <v>244.2038386074096</v>
       </c>
       <c r="F11">
         <v>1097.03775721248</v>
       </c>
       <c r="G11">
-        <v>0.003180267576430307</v>
+        <v>0.003317052248776031</v>
       </c>
       <c r="H11">
-        <v>0.001684417859812649</v>
+        <v>0.001682499459882681</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -683,22 +683,22 @@
         <v>560</v>
       </c>
       <c r="C12">
-        <v>45.64790419173571</v>
+        <v>45.60609489748844</v>
       </c>
       <c r="D12">
-        <v>1.15958628604605</v>
+        <v>1.162346590369297</v>
       </c>
       <c r="E12">
-        <v>231.344718221051</v>
+        <v>244.2038386074096</v>
       </c>
       <c r="F12">
         <v>1097.03775721248</v>
       </c>
       <c r="G12">
-        <v>0.00194251061817905</v>
+        <v>0.00212524809746335</v>
       </c>
       <c r="H12">
-        <v>0.001671288788053451</v>
+        <v>0.001675267160100941</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -709,22 +709,22 @@
         <v>600</v>
       </c>
       <c r="C13">
-        <v>45.66770174845895</v>
+        <v>45.63446558379174</v>
       </c>
       <c r="D13">
-        <v>1.156311009677104</v>
+        <v>1.157120854863897</v>
       </c>
       <c r="E13">
-        <v>231.344718221051</v>
+        <v>244.2038386074096</v>
       </c>
       <c r="F13">
         <v>1097.03775721248</v>
       </c>
       <c r="G13">
-        <v>0.001732261493067622</v>
+        <v>0.002209080056902257</v>
       </c>
       <c r="H13">
-        <v>0.001666568196977939</v>
+        <v>0.001667735410834323</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -735,22 +735,22 @@
         <v>640</v>
       </c>
       <c r="C14">
-        <v>45.75375984120511</v>
+        <v>45.7667573828736</v>
       </c>
       <c r="D14">
-        <v>1.147859880726404</v>
+        <v>1.147078923363605</v>
       </c>
       <c r="E14">
-        <v>231.344718221051</v>
+        <v>244.2038386074096</v>
       </c>
       <c r="F14">
         <v>1097.03775721248</v>
       </c>
       <c r="G14">
-        <v>0.001019412444323953</v>
+        <v>0.003128526252846475</v>
       </c>
       <c r="H14">
-        <v>0.00165438775190743</v>
+        <v>0.001653262173500631</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -761,22 +761,22 @@
         <v>680</v>
       </c>
       <c r="C15">
-        <v>45.80993169419994</v>
+        <v>45.743621719911</v>
       </c>
       <c r="D15">
-        <v>1.134487077571203</v>
+        <v>1.134509816588351</v>
       </c>
       <c r="E15">
-        <v>231.344718221051</v>
+        <v>244.2038386074096</v>
       </c>
       <c r="F15">
         <v>1097.03775721248</v>
       </c>
       <c r="G15">
-        <v>0.001685275694003163</v>
+        <v>0.001908151685860649</v>
       </c>
       <c r="H15">
-        <v>0.001635113795111734</v>
+        <v>0.001635146568407579</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -787,22 +787,22 @@
         <v>720</v>
       </c>
       <c r="C16">
-        <v>45.75313896644027</v>
+        <v>45.84635783816942</v>
       </c>
       <c r="D16">
-        <v>1.128473950009796</v>
+        <v>1.129019459334866</v>
       </c>
       <c r="E16">
-        <v>231.344718221051</v>
+        <v>244.2038386074096</v>
       </c>
       <c r="F16">
         <v>1097.03775721248</v>
       </c>
       <c r="G16">
-        <v>0.002104527581661486</v>
+        <v>0.001027458021960648</v>
       </c>
       <c r="H16">
-        <v>0.001626447193242216</v>
+        <v>0.001627233425047247</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -813,22 +813,22 @@
         <v>760</v>
       </c>
       <c r="C17">
-        <v>45.73925361227141</v>
+        <v>45.79020059627808</v>
       </c>
       <c r="D17">
-        <v>1.120413265829027</v>
+        <v>1.121573692967456</v>
       </c>
       <c r="E17">
-        <v>231.344718221051</v>
+        <v>244.2038386074096</v>
       </c>
       <c r="F17">
         <v>1097.03775721248</v>
       </c>
       <c r="G17">
-        <v>0.001565756978120714</v>
+        <v>0.002481988612721775</v>
       </c>
       <c r="H17">
-        <v>0.001614829488499177</v>
+        <v>0.001616501989191146</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -839,22 +839,22 @@
         <v>800</v>
       </c>
       <c r="C18">
-        <v>45.8261205597159</v>
+        <v>45.91793551880129</v>
       </c>
       <c r="D18">
-        <v>1.11146424196275</v>
+        <v>1.111038702610816</v>
       </c>
       <c r="E18">
-        <v>231.344718221051</v>
+        <v>244.2038386074096</v>
       </c>
       <c r="F18">
         <v>1097.03775721248</v>
       </c>
       <c r="G18">
-        <v>0.001515411899085084</v>
+        <v>0.001578877180488369</v>
       </c>
       <c r="H18">
-        <v>0.001601931437330661</v>
+        <v>0.001601318115876</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -865,22 +865,22 @@
         <v>840</v>
       </c>
       <c r="C19">
-        <v>45.85807006421857</v>
+        <v>45.86097736625998</v>
       </c>
       <c r="D19">
-        <v>1.105639841492251</v>
+        <v>1.098210236450056</v>
       </c>
       <c r="E19">
-        <v>231.344718221051</v>
+        <v>244.2038386074096</v>
       </c>
       <c r="F19">
         <v>1097.03775721248</v>
       </c>
       <c r="G19">
-        <v>0.001186492026565</v>
+        <v>0.002236488403855885</v>
       </c>
       <c r="H19">
-        <v>0.001593536844085971</v>
+        <v>0.001582828701228379</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -891,22 +891,22 @@
         <v>880</v>
       </c>
       <c r="C20">
-        <v>45.98462860480155</v>
+        <v>45.77048818100214</v>
       </c>
       <c r="D20">
-        <v>1.088919582722476</v>
+        <v>1.093054923970639</v>
       </c>
       <c r="E20">
-        <v>231.344718221051</v>
+        <v>244.2038386074096</v>
       </c>
       <c r="F20">
         <v>1097.03775721248</v>
       </c>
       <c r="G20">
-        <v>0.001356350218373281</v>
+        <v>0.001225102276808343</v>
       </c>
       <c r="H20">
-        <v>0.001569438265695084</v>
+        <v>0.001575398451276785</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -917,22 +917,22 @@
         <v>920</v>
       </c>
       <c r="C21">
-        <v>45.91822286495827</v>
+        <v>46.03158376182722</v>
       </c>
       <c r="D21">
-        <v>1.07835438717989</v>
+        <v>1.08203845370778</v>
       </c>
       <c r="E21">
-        <v>231.344718221051</v>
+        <v>244.2038386074096</v>
       </c>
       <c r="F21">
         <v>1097.03775721248</v>
       </c>
       <c r="G21">
-        <v>0.001511025349076123</v>
+        <v>0.001805438842063234</v>
       </c>
       <c r="H21">
-        <v>0.001554210858242617</v>
+        <v>0.001559520630492081</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -943,22 +943,22 @@
         <v>960</v>
       </c>
       <c r="C22">
-        <v>45.99622574505872</v>
+        <v>46.01937773175174</v>
       </c>
       <c r="D22">
-        <v>1.070651263123459</v>
+        <v>1.069206202467975</v>
       </c>
       <c r="E22">
-        <v>231.344718221051</v>
+        <v>244.2038386074096</v>
       </c>
       <c r="F22">
         <v>1097.03775721248</v>
       </c>
       <c r="G22">
-        <v>0.00181284116504421</v>
+        <v>0.001028878492816832</v>
       </c>
       <c r="H22">
-        <v>0.001543108497837515</v>
+        <v>0.001541025760484866</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -969,22 +969,22 @@
         <v>1000</v>
       </c>
       <c r="C23">
-        <v>45.99977041845034</v>
+        <v>46.10145986452794</v>
       </c>
       <c r="D23">
-        <v>1.060256854121541</v>
+        <v>1.0606925096897</v>
       </c>
       <c r="E23">
-        <v>231.344718221051</v>
+        <v>244.2038386074096</v>
       </c>
       <c r="F23">
         <v>1097.03775721248</v>
       </c>
       <c r="G23">
-        <v>0.002195097019798053</v>
+        <v>0.0020577159964831</v>
       </c>
       <c r="H23">
-        <v>0.001528127241649514</v>
+        <v>0.001528755143406614</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -995,22 +995,22 @@
         <v>1040</v>
       </c>
       <c r="C24">
-        <v>45.97015500137999</v>
+        <v>46.04237420245875</v>
       </c>
       <c r="D24">
-        <v>1.052804610038829</v>
+        <v>1.051371016688426</v>
       </c>
       <c r="E24">
-        <v>231.344718221051</v>
+        <v>244.2038386074096</v>
       </c>
       <c r="F24">
         <v>1097.03775721248</v>
       </c>
       <c r="G24">
-        <v>0.00154377348963588</v>
+        <v>0.002922664368640459</v>
       </c>
       <c r="H24">
-        <v>0.001517386469590419</v>
+        <v>0.001515320259837864</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1021,22 +1021,22 @@
         <v>1080</v>
       </c>
       <c r="C25">
-        <v>45.98101766812359</v>
+        <v>46.0790708110082</v>
       </c>
       <c r="D25">
-        <v>1.04177175779331</v>
+        <v>1.041273068475844</v>
       </c>
       <c r="E25">
-        <v>231.344718221051</v>
+        <v>244.2038386074096</v>
       </c>
       <c r="F25">
         <v>1097.03775721248</v>
       </c>
       <c r="G25">
-        <v>0.001864804651502139</v>
+        <v>0.0007697532012922003</v>
       </c>
       <c r="H25">
-        <v>0.001501485037777992</v>
+        <v>0.001500766286724248</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1047,22 +1047,22 @@
         <v>1120</v>
       </c>
       <c r="C26">
-        <v>46.11617514612298</v>
+        <v>46.08255607765199</v>
       </c>
       <c r="D26">
-        <v>1.036805230304139</v>
+        <v>1.03431010060462</v>
       </c>
       <c r="E26">
-        <v>231.344718221051</v>
+        <v>244.2038386074096</v>
       </c>
       <c r="F26">
         <v>1097.03775721248</v>
       </c>
       <c r="G26">
-        <v>0.001261123871019354</v>
+        <v>0.001078893951436877</v>
       </c>
       <c r="H26">
-        <v>0.001494326879900398</v>
+        <v>0.001490730698795355</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1073,22 +1073,22 @@
         <v>1160</v>
       </c>
       <c r="C27">
-        <v>46.20928558738626</v>
+        <v>46.19021192569728</v>
       </c>
       <c r="D27">
-        <v>1.021802876398537</v>
+        <v>1.022691406582059</v>
       </c>
       <c r="E27">
-        <v>231.344718221051</v>
+        <v>244.2038386074096</v>
       </c>
       <c r="F27">
         <v>1097.03775721248</v>
       </c>
       <c r="G27">
-        <v>0.0008945174770432996</v>
+        <v>0.0004508750995040778</v>
       </c>
       <c r="H27">
-        <v>0.001472704283825778</v>
+        <v>0.001473984904812277</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1099,22 +1099,22 @@
         <v>1200</v>
       </c>
       <c r="C28">
-        <v>46.23163236314329</v>
+        <v>46.23811447998462</v>
       </c>
       <c r="D28">
-        <v>1.016251542272509</v>
+        <v>1.0179345022444</v>
       </c>
       <c r="E28">
-        <v>231.344718221051</v>
+        <v>244.2038386074096</v>
       </c>
       <c r="F28">
         <v>1097.03775721248</v>
       </c>
       <c r="G28">
-        <v>0.0005416876470187403</v>
+        <v>0.00129533213122861</v>
       </c>
       <c r="H28">
-        <v>0.001464703255704615</v>
+        <v>0.001467128872638526</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1125,22 +1125,22 @@
         <v>1240</v>
       </c>
       <c r="C29">
-        <v>46.21659160919861</v>
+        <v>46.15474427403397</v>
       </c>
       <c r="D29">
-        <v>1.01105684053752</v>
+        <v>1.008686838971532</v>
       </c>
       <c r="E29">
-        <v>231.344718221051</v>
+        <v>244.2038386074096</v>
       </c>
       <c r="F29">
         <v>1097.03775721248</v>
       </c>
       <c r="G29">
-        <v>0.000120022421852406</v>
+        <v>0.0002701656746305403</v>
       </c>
       <c r="H29">
-        <v>0.001457216234797726</v>
+        <v>0.00145380039839765</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1151,22 +1151,22 @@
         <v>1280</v>
       </c>
       <c r="C30">
-        <v>46.19800556442182</v>
+        <v>46.19200076398164</v>
       </c>
       <c r="D30">
-        <v>1.006412126802823</v>
+        <v>1.005938965016721</v>
       </c>
       <c r="E30">
-        <v>231.344718221051</v>
+        <v>244.2038386074096</v>
       </c>
       <c r="F30">
         <v>1097.03775721248</v>
       </c>
       <c r="G30">
-        <v>-0.001120643780475028</v>
+        <v>-0.0003621634829102938</v>
       </c>
       <c r="H30">
-        <v>0.001450521900721918</v>
+        <v>0.001449839941994428</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1177,22 +1177,22 @@
         <v>1320</v>
       </c>
       <c r="C31">
-        <v>46.14289321477727</v>
+        <v>46.17359988044859</v>
       </c>
       <c r="D31">
-        <v>1.001983348763333</v>
+        <v>1.000931536513408</v>
       </c>
       <c r="E31">
-        <v>231.344718221051</v>
+        <v>244.2038386074096</v>
       </c>
       <c r="F31">
         <v>1097.03775721248</v>
       </c>
       <c r="G31">
-        <v>-0.002062713062767152</v>
+        <v>-0.0009979430732677485</v>
       </c>
       <c r="H31">
-        <v>0.001444138790494377</v>
+        <v>0.001442622834293799</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1203,22 +1203,22 @@
         <v>1360</v>
       </c>
       <c r="C32">
-        <v>46.05682502490299</v>
+        <v>46.24962734345533</v>
       </c>
       <c r="D32">
-        <v>0.9970725581736521</v>
+        <v>0.9975190963809993</v>
       </c>
       <c r="E32">
-        <v>231.344718221051</v>
+        <v>244.2038386074096</v>
       </c>
       <c r="F32">
         <v>1097.03775721248</v>
       </c>
       <c r="G32">
-        <v>-0.002585399833838276</v>
+        <v>-0.002504346787022182</v>
       </c>
       <c r="H32">
-        <v>0.001437060965108051</v>
+        <v>0.001437704551797854</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1229,22 +1229,22 @@
         <v>1400</v>
       </c>
       <c r="C33">
-        <v>46.00022125561998</v>
+        <v>46.12229731894909</v>
       </c>
       <c r="D33">
-        <v>0.9920852958368088</v>
+        <v>0.9938717465931416</v>
       </c>
       <c r="E33">
-        <v>231.344718221051</v>
+        <v>244.2038386074096</v>
       </c>
       <c r="F33">
         <v>1097.03775721248</v>
       </c>
       <c r="G33">
-        <v>-0.00299233171294957</v>
+        <v>-0.003225824461685756</v>
       </c>
       <c r="H33">
-        <v>0.001429872922504453</v>
+        <v>0.001432447698659877</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1255,22 +1255,22 @@
         <v>1440</v>
       </c>
       <c r="C34">
-        <v>45.93687214124697</v>
+        <v>46.02460992038634</v>
       </c>
       <c r="D34">
-        <v>0.9902911402688765</v>
+        <v>0.9897637338756072</v>
       </c>
       <c r="E34">
-        <v>231.344718221051</v>
+        <v>244.2038386074096</v>
       </c>
       <c r="F34">
         <v>1097.03775721248</v>
       </c>
       <c r="G34">
-        <v>-0.004436612618519309</v>
+        <v>-0.004300308102524175</v>
       </c>
       <c r="H34">
-        <v>0.001427287041556401</v>
+        <v>0.001426526901149063</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1281,22 +1281,22 @@
         <v>1480</v>
       </c>
       <c r="C35">
-        <v>45.87925149734352</v>
+        <v>46.03054103397444</v>
       </c>
       <c r="D35">
-        <v>0.9929116307549626</v>
+        <v>0.9909217603836337</v>
       </c>
       <c r="E35">
-        <v>231.344718221051</v>
+        <v>244.2038386074096</v>
       </c>
       <c r="F35">
         <v>1097.03775721248</v>
       </c>
       <c r="G35">
-        <v>-0.004396806547782184</v>
+        <v>-0.005310601803006243</v>
       </c>
       <c r="H35">
-        <v>0.001431063902684631</v>
+        <v>0.001428195941859895</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1307,22 +1307,22 @@
         <v>1520</v>
       </c>
       <c r="C36">
-        <v>45.81796838972917</v>
+        <v>45.83741899406107</v>
       </c>
       <c r="D36">
-        <v>0.9883725702171987</v>
+        <v>0.9867618723285392</v>
       </c>
       <c r="E36">
-        <v>231.344718221051</v>
+        <v>244.2038386074096</v>
       </c>
       <c r="F36">
         <v>1097.03775721248</v>
       </c>
       <c r="G36">
-        <v>-0.004594038392368383</v>
+        <v>-0.00611279200774848</v>
       </c>
       <c r="H36">
-        <v>0.001424521844472708</v>
+        <v>0.001422200377450675</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1333,22 +1333,22 @@
         <v>1560</v>
       </c>
       <c r="C37">
-        <v>45.73781853512668</v>
+        <v>45.63861236016425</v>
       </c>
       <c r="D37">
-        <v>0.9831926348493295</v>
+        <v>0.9841734239958921</v>
       </c>
       <c r="E37">
-        <v>231.344718221051</v>
+        <v>244.2038386074096</v>
       </c>
       <c r="F37">
         <v>1097.03775721248</v>
       </c>
       <c r="G37">
-        <v>-0.00497162765645367</v>
+        <v>-0.0057272005618624</v>
       </c>
       <c r="H37">
-        <v>0.001417056106038805</v>
+        <v>0.001418469698044695</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1359,22 +1359,22 @@
         <v>1600</v>
       </c>
       <c r="C38">
-        <v>45.48814754545873</v>
+        <v>45.50395146757777</v>
       </c>
       <c r="D38">
-        <v>0.9868057228000789</v>
+        <v>0.9839526265581154</v>
       </c>
       <c r="E38">
-        <v>231.344718221051</v>
+        <v>244.2038386074096</v>
       </c>
       <c r="F38">
         <v>1097.03775721248</v>
       </c>
       <c r="G38">
-        <v>-0.005516936319920784</v>
+        <v>-0.006159860795091454</v>
       </c>
       <c r="H38">
-        <v>0.001422263578268344</v>
+        <v>0.001418151467062984</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1385,22 +1385,22 @@
         <v>1640</v>
       </c>
       <c r="C39">
-        <v>45.43940416713212</v>
+        <v>45.32390359196759</v>
       </c>
       <c r="D39">
-        <v>0.9814086703436712</v>
+        <v>0.9883750959897272</v>
       </c>
       <c r="E39">
-        <v>231.344718221051</v>
+        <v>244.2038386074096</v>
       </c>
       <c r="F39">
         <v>1097.03775721248</v>
       </c>
       <c r="G39">
-        <v>-0.005875735097678003</v>
+        <v>-0.007422597357675897</v>
       </c>
       <c r="H39">
-        <v>0.001414484913267322</v>
+        <v>0.001424525484818717</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1411,22 +1411,22 @@
         <v>1680</v>
       </c>
       <c r="C40">
-        <v>45.32177888212405</v>
+        <v>45.27158062221557</v>
       </c>
       <c r="D40">
-        <v>0.983605471499283</v>
+        <v>0.9837041121773507</v>
       </c>
       <c r="E40">
-        <v>231.344718221051</v>
+        <v>244.2038386074096</v>
       </c>
       <c r="F40">
         <v>1097.03775721248</v>
       </c>
       <c r="G40">
-        <v>-0.006301799461385293</v>
+        <v>-0.006113744157473367</v>
       </c>
       <c r="H40">
-        <v>0.001417651119340245</v>
+        <v>0.001417793288199332</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1437,22 +1437,22 @@
         <v>1720</v>
       </c>
       <c r="C41">
-        <v>45.20476083058739</v>
+        <v>45.2059452290511</v>
       </c>
       <c r="D41">
-        <v>0.9872431537497082</v>
+        <v>0.983256631901344</v>
       </c>
       <c r="E41">
-        <v>231.344718221051</v>
+        <v>244.2038386074096</v>
       </c>
       <c r="F41">
         <v>1097.03775721248</v>
       </c>
       <c r="G41">
-        <v>-0.006233211658468995</v>
+        <v>-0.005935518526828698</v>
       </c>
       <c r="H41">
-        <v>0.001422894038847656</v>
+        <v>0.001417148343724596</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1463,22 +1463,22 @@
         <v>1760</v>
       </c>
       <c r="C42">
-        <v>45.05416233005965</v>
+        <v>45.03903219317171</v>
       </c>
       <c r="D42">
-        <v>0.9833929689729682</v>
+        <v>0.9812446511809174</v>
       </c>
       <c r="E42">
-        <v>231.344718221051</v>
+        <v>244.2038386074096</v>
       </c>
       <c r="F42">
         <v>1097.03775721248</v>
       </c>
       <c r="G42">
-        <v>-0.005964086660618273</v>
+        <v>-0.005217114457637085</v>
       </c>
       <c r="H42">
-        <v>0.001417344843650426</v>
+        <v>0.001414248515690846</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1489,22 +1489,22 @@
         <v>1800</v>
       </c>
       <c r="C43">
-        <v>44.93913388171504</v>
+        <v>44.84292545674629</v>
       </c>
       <c r="D43">
-        <v>0.9851855145293918</v>
+        <v>0.984012475159144</v>
       </c>
       <c r="E43">
-        <v>231.344718221051</v>
+        <v>244.2038386074096</v>
       </c>
       <c r="F43">
         <v>1097.03775721248</v>
       </c>
       <c r="G43">
-        <v>-0.006933324320939693</v>
+        <v>-0.00558125476338307</v>
       </c>
       <c r="H43">
-        <v>0.001419928404120722</v>
+        <v>0.001418237725668388</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1515,22 +1515,22 @@
         <v>1840</v>
       </c>
       <c r="C44">
-        <v>44.80968047590752</v>
+        <v>44.85921992886533</v>
       </c>
       <c r="D44">
-        <v>0.9825516823346444</v>
+        <v>0.9826924015306965</v>
       </c>
       <c r="E44">
-        <v>231.344718221051</v>
+        <v>244.2038386074096</v>
       </c>
       <c r="F44">
         <v>1097.03775721248</v>
       </c>
       <c r="G44">
-        <v>-0.00679688369309237</v>
+        <v>-0.006421394210458331</v>
       </c>
       <c r="H44">
-        <v>0.001416132313851575</v>
+        <v>0.001416335129646705</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1541,19 +1541,19 @@
         <v>1880</v>
       </c>
       <c r="C45">
-        <v>44.74050466977164</v>
+        <v>44.68892939587166</v>
       </c>
       <c r="D45">
-        <v>0.9821259662701033</v>
+        <v>0.9790719225383578</v>
       </c>
       <c r="E45">
-        <v>231.344718221051</v>
+        <v>244.2038386074096</v>
       </c>
       <c r="F45">
         <v>1097.03775721248</v>
       </c>
       <c r="H45">
-        <v>0.001415518737704527</v>
+        <v>0.001411117004855051</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1564,19 +1564,19 @@
         <v>1920</v>
       </c>
       <c r="C46">
-        <v>44.53389367975981</v>
+        <v>44.66921315435584</v>
       </c>
       <c r="D46">
-        <v>0.9803523911983749</v>
+        <v>0.9849753935484226</v>
       </c>
       <c r="E46">
-        <v>231.344718221051</v>
+        <v>244.2038386074096</v>
       </c>
       <c r="F46">
         <v>1097.03775721248</v>
       </c>
       <c r="H46">
-        <v>0.00141296251901876</v>
+        <v>0.001419625560905125</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1587,19 +1587,19 @@
         <v>1960</v>
       </c>
       <c r="C47">
-        <v>44.33007227578177</v>
+        <v>44.4309028298263</v>
       </c>
       <c r="D47">
-        <v>0.988289423201923</v>
+        <v>0.9875305642352902</v>
       </c>
       <c r="E47">
-        <v>231.344718221051</v>
+        <v>244.2038386074096</v>
       </c>
       <c r="F47">
         <v>1097.03775721248</v>
       </c>
       <c r="H47">
-        <v>0.00142440200632348</v>
+        <v>0.001423308277898171</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1610,19 +1610,19 @@
         <v>2000</v>
       </c>
       <c r="C48">
-        <v>44.23427749122927</v>
+        <v>44.24415754854224</v>
       </c>
       <c r="D48">
-        <v>0.9850687283138175</v>
+        <v>0.9826358249786085</v>
       </c>
       <c r="E48">
-        <v>231.344718221051</v>
+        <v>244.2038386074096</v>
       </c>
       <c r="F48">
         <v>1097.03775721248</v>
       </c>
       <c r="H48">
-        <v>0.00141976008245718</v>
+        <v>0.001416253586980748</v>
       </c>
     </row>
   </sheetData>
